--- a/database/OLD/RAPRO22232023/CM/CM.xlsx
+++ b/database/OLD/RAPRO22232023/CM/CM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -14811,7 +14811,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -33570,7 +33570,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C850" t="n">
@@ -33609,7 +33609,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C851" t="n">
@@ -33882,7 +33882,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C858" t="n">
@@ -34701,7 +34701,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C879" t="n">
@@ -35130,7 +35130,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C890" t="n">
@@ -35208,7 +35208,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -35325,7 +35325,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -35520,7 +35520,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C900" t="n">
@@ -40707,7 +40707,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C1033" t="n">
@@ -40980,7 +40980,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1040" t="n">
@@ -41058,7 +41058,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C1042" t="n">
@@ -42111,7 +42111,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1069" t="n">
@@ -42384,7 +42384,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C1076" t="n">
@@ -42618,7 +42618,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1082" t="n">
@@ -42774,7 +42774,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1086" t="n">
@@ -42813,7 +42813,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C1087" t="n">
@@ -43281,7 +43281,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C1099" t="n">
@@ -44100,7 +44100,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C1120" t="n">
@@ -44178,7 +44178,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C1122" t="n">
@@ -44295,7 +44295,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C1125" t="n">
@@ -44490,7 +44490,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C1130" t="n">
@@ -73038,7 +73038,7 @@
       </c>
       <c r="B1862" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C1862" t="n">
@@ -73116,7 +73116,7 @@
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C1864" t="n">
@@ -73545,7 +73545,7 @@
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C1875" t="n">
@@ -73623,7 +73623,7 @@
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C1877" t="n">
@@ -73701,7 +73701,7 @@
       </c>
       <c r="B1879" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C1879" t="n">
@@ -73740,7 +73740,7 @@
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C1880" t="n">
@@ -73818,7 +73818,7 @@
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C1882" t="n">
@@ -74169,7 +74169,7 @@
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C1891" t="n">

--- a/database/OLD/RAPRO22232023/CM/CM.xlsx
+++ b/database/OLD/RAPRO22232023/CM/CM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33609,7 +33609,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C851" t="n">
@@ -35130,7 +35130,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C890" t="n">
@@ -35208,7 +35208,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C892" t="n">
@@ -35325,7 +35325,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C895" t="n">
@@ -35520,7 +35520,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C900" t="n">
@@ -40707,7 +40707,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C1033" t="n">
@@ -41058,7 +41058,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C1042" t="n">
@@ -42384,7 +42384,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C1076" t="n">
@@ -73116,7 +73116,7 @@
       </c>
       <c r="B1864" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C1864" t="n">
@@ -73545,7 +73545,7 @@
       </c>
       <c r="B1875" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C1875" t="n">
@@ -73623,7 +73623,7 @@
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C1877" t="n">
@@ -73740,7 +73740,7 @@
       </c>
       <c r="B1880" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C1880" t="n">
@@ -73818,7 +73818,7 @@
       </c>
       <c r="B1882" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C1882" t="n">

--- a/database/OLD/RAPRO22232023/CM/CM.xlsx
+++ b/database/OLD/RAPRO22232023/CM/CM.xlsx
@@ -11730,7 +11730,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C298" t="n">
